--- a/Polixia web-portal.xlsx
+++ b/Polixia web-portal.xlsx
@@ -1180,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
